--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Module1</t>
   </si>
@@ -73,6 +73,30 @@
     <t>G4
 1. Decision tree definition-
 2. Decision tree classifier- (1.10.1)sklearn,graphviz implementation code</t>
+  </si>
+  <si>
+    <t>G-3:
+1. Video Lectures
+2. Detail study of multi class classification code</t>
+  </si>
+  <si>
+    <t>G-4( Date-25/06/19)
+Examples
+1.plot the decision surface on a decision tree.
+2.understanding the decision tree.
+(Lectures 1&amp;2).</t>
+  </si>
+  <si>
+    <t>G-1
+1. Study of svm video lectures
+2. Observing and analysing the use of SVM</t>
+  </si>
+  <si>
+    <t>G-2
+1. Studied about the basics of Machine Learning.
+2. Types of Machine Learning
+3. What is clustering?
+4. Studied about the workflow of the classification Algorithm - Nearest Neighbors</t>
   </si>
 </sst>
 </file>
@@ -119,6 +143,13 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -127,13 +158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,178 +456,190 @@
   <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="51" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="51" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="7"/>
+      <c r="CH2" s="7"/>
+      <c r="CI2" s="7"/>
+      <c r="CJ2" s="7"/>
+      <c r="CK2" s="7"/>
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="7"/>
+      <c r="CN2" s="7"/>
+      <c r="CO2" s="7"/>
+      <c r="CP2" s="7"/>
+      <c r="CQ2" s="7"/>
+      <c r="CR2" s="7"/>
+      <c r="CS2" s="7"/>
+      <c r="CT2" s="7"/>
+      <c r="CU2" s="7"/>
+      <c r="CV2" s="7"/>
+      <c r="CW2" s="7"/>
+      <c r="CX2" s="7"/>
+      <c r="CY2" s="7"/>
+      <c r="CZ2" s="7"/>
     </row>
     <row r="3" spans="1:104">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>43641</v>
       </c>
     </row>
     <row r="4" spans="1:104" ht="188.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:104" ht="113" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:104" ht="93.5" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:104" ht="93" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Module1</t>
   </si>
@@ -97,6 +97,28 @@
 2. Types of Machine Learning
 3. What is clustering?
 4. Studied about the workflow of the classification Algorithm - Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>G2:
+1. Studied about the structue of Datasets.
+2. What is the impact of missing data sample in Datasets when we use it win some model
+3. Studied about Euclidean Distance
+4. Execute the code of K-NN and get the accuracy</t>
+  </si>
+  <si>
+    <t>G1:
+1. Watched video lecture of SVM
+2. Train a model of real_kdd_dataset</t>
+  </si>
+  <si>
+    <t>G1:
+1. Analysing the left out SVM lectures.
+2. Analysing and executing new functions of svm on python</t>
+  </si>
+  <si>
+    <t>G4-(Date -26/06/19)
+1.implementing a code of a helper function..
+2. Understand a decision tree lecture 3</t>
   </si>
 </sst>
 </file>
@@ -140,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -158,6 +179,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,191 +482,207 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="41.54296875" customWidth="1"/>
-    <col min="2" max="2" width="51" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.08984375" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="7"/>
-      <c r="CD2" s="7"/>
-      <c r="CE2" s="7"/>
-      <c r="CF2" s="7"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7"/>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
     </row>
     <row r="3" spans="1:104">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>43641</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43642</v>
       </c>
     </row>
     <row r="4" spans="1:104" ht="188.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:104" ht="113" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:104" ht="93.5" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:104" ht="93" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Module1</t>
   </si>
@@ -107,11 +107,6 @@
   </si>
   <si>
     <t>G1:
-1. Watched video lecture of SVM
-2. Train a model of real_kdd_dataset</t>
-  </si>
-  <si>
-    <t>G1:
 1. Analysing the left out SVM lectures.
 2. Analysing and executing new functions of svm on python</t>
   </si>
@@ -119,6 +114,43 @@
     <t>G4-(Date -26/06/19)
 1.implementing a code of a helper function..
 2. Understand a decision tree lecture 3</t>
+  </si>
+  <si>
+    <t>G2:
+1. Complete the assigned video letures.
+2. Execute the code for testing of KNN classifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1:
+1. Executing and analysing the code provided by Dhruba sir
+</t>
+  </si>
+  <si>
+    <t>G4 (Date-27/06/19)
+Svm code
+Split function</t>
+  </si>
+  <si>
+    <t>G3:
+1. Watched video lecture of SVM
+2. Train a model of real_kdd_dataset</t>
+  </si>
+  <si>
+    <t>G-3
+27/06/19
+1.SVM code optimization analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2:
+1. Study about different packages in python 
+2. Learn about "Quandl" packages
+3. Manipulation over datasets
+4. Execute the code and understand the workflow of Quandl Regression
+</t>
+  </si>
+  <si>
+    <t>G4 (Date 28/06/19)
+Decision tree compiled tree visualization</t>
   </si>
 </sst>
 </file>
@@ -171,6 +203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,12 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -492,141 +524,149 @@
     <col min="2" max="2" width="51" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.08984375" customWidth="1"/>
     <col min="4" max="4" width="32.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="50.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="6"/>
-      <c r="CI2" s="6"/>
-      <c r="CJ2" s="6"/>
-      <c r="CK2" s="6"/>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="6"/>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="6"/>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6"/>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6"/>
-      <c r="CT2" s="6"/>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6"/>
-      <c r="CW2" s="6"/>
-      <c r="CX2" s="6"/>
-      <c r="CY2" s="6"/>
-      <c r="CZ2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="8"/>
+      <c r="CQ2" s="8"/>
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
     </row>
     <row r="3" spans="1:104">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>43642</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43643</v>
+      </c>
+      <c r="F3" s="4">
+        <v>43644</v>
       </c>
     </row>
     <row r="4" spans="1:104" ht="188.5">
@@ -640,7 +680,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:104" ht="113" customHeight="1">
@@ -653,11 +696,14 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" ht="93.5" customHeight="1">
+    <row r="6" spans="1:104" ht="159" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -668,7 +714,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:104" ht="93" customHeight="1">
@@ -682,7 +734,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Module1</t>
   </si>
@@ -151,6 +151,44 @@
   <si>
     <t>G4 (Date 28/06/19)
 Decision tree compiled tree visualization</t>
+  </si>
+  <si>
+    <t>G1:
+1. Analysis of kernel functions in svm</t>
+  </si>
+  <si>
+    <t>G2:
+1. How to extract unstructured data from HTML files
+2. How to create a csv file though the unstructured collected data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3:
+1. Study and execution of SVM Kernel function code.
+2. Study of reserved method.
+3. Kernel video lectures
+</t>
+  </si>
+  <si>
+    <t>G4:
+1. Analysis of decision tree code for different data set</t>
+  </si>
+  <si>
+    <t>G-3
+02/07/2019
+1.kernel code analysis</t>
+  </si>
+  <si>
+    <t>G2:
+1. study about "Pandas" package
+2. Study about "OS" package
+3. Study the code of Extraction of data from HTML files, and 
+tried to understand the work flow of the code
+4. What is Unix Time
+5. How to calculate Unix time and why it is Useful?</t>
+  </si>
+  <si>
+    <t>group4
+accuracy calculated</t>
   </si>
 </sst>
 </file>
@@ -194,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -217,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -526,6 +567,8 @@
     <col min="4" max="4" width="32.81640625" customWidth="1"/>
     <col min="5" max="5" width="26.1796875" customWidth="1"/>
     <col min="6" max="6" width="50.08984375" customWidth="1"/>
+    <col min="7" max="7" width="43.36328125" customWidth="1"/>
+    <col min="8" max="8" width="48.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
@@ -668,6 +711,12 @@
       <c r="F3" s="4">
         <v>43644</v>
       </c>
+      <c r="G3" s="4">
+        <v>43617</v>
+      </c>
+      <c r="H3" s="9">
+        <v>43618</v>
+      </c>
     </row>
     <row r="4" spans="1:104" ht="188.5">
       <c r="A4" s="2" t="s">
@@ -685,6 +734,9 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:104" ht="113" customHeight="1">
       <c r="A5" t="s">
@@ -702,6 +754,12 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:104" ht="159" customHeight="1">
       <c r="A6" t="s">
@@ -722,6 +780,12 @@
       <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:104" ht="93" customHeight="1">
       <c r="A7" t="s">
@@ -741,6 +805,12 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Module1</t>
   </si>
@@ -189,6 +189,60 @@
   <si>
     <t>group4
 accuracy calculated</t>
+  </si>
+  <si>
+    <t>G4: Resolving error of univariate feature selection</t>
+  </si>
+  <si>
+    <t>G1- Progress report
+Day - 02/07/19
+1. analysis of kernal code in svm</t>
+  </si>
+  <si>
+    <t>1.Complete the code of extracting data from the HTML files
+2.Analysis the data through the SVM classifier</t>
+  </si>
+  <si>
+    <t>GROUP:-3
+Date:-03/07/2019
+# Splitting of kdd_dataset and iris_dataset</t>
+  </si>
+  <si>
+    <t>1.Analysis of accuracy by using SVM, KNN, NAÏVE BAYES</t>
+  </si>
+  <si>
+    <t>G-3
+Date 05/06/19
+1. IWD code execution</t>
+  </si>
+  <si>
+    <t>G4 date-05/07/19
+Further analysis of the error in kdd dataset code</t>
+  </si>
+  <si>
+    <t>G4 date 06/07/19
+calcuting time with and without feature selection of DT</t>
+  </si>
+  <si>
+    <t>1. Get 10 accuracy through KNN and analysis the accuracy</t>
+  </si>
+  <si>
+    <t>G1- progress report
+Day- 06/07/19
+1. analysis of PSO code</t>
+  </si>
+  <si>
+    <t>(G2) Date-08/07/2019
+Started Wrtitng Report</t>
+  </si>
+  <si>
+    <t>GROUP-3
+Date-8 july 2019
+Topic:-Retrieve load time,split time and fit time of test data set using
+sklearn.</t>
+  </si>
+  <si>
+    <t>Writing Report</t>
   </si>
 </sst>
 </file>
@@ -232,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,6 +301,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,8 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -569,130 +626,136 @@
     <col min="6" max="6" width="50.08984375" customWidth="1"/>
     <col min="7" max="7" width="43.36328125" customWidth="1"/>
     <col min="8" max="8" width="48.1796875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" customWidth="1"/>
+    <col min="11" max="11" width="25.453125" customWidth="1"/>
+    <col min="12" max="12" width="39.26953125" customWidth="1"/>
+    <col min="13" max="13" width="18.90625" customWidth="1"/>
+    <col min="14" max="14" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:104">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:104">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="9"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="9"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="9"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="9"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="9"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="9"/>
+      <c r="CE2" s="9"/>
+      <c r="CF2" s="9"/>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="9"/>
+      <c r="CI2" s="9"/>
+      <c r="CJ2" s="9"/>
+      <c r="CK2" s="9"/>
+      <c r="CL2" s="9"/>
+      <c r="CM2" s="9"/>
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="9"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="9"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="9"/>
+      <c r="CT2" s="9"/>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9"/>
+      <c r="CW2" s="9"/>
+      <c r="CX2" s="9"/>
+      <c r="CY2" s="9"/>
+      <c r="CZ2" s="9"/>
     </row>
     <row r="3" spans="1:104">
       <c r="A3" s="1"/>
@@ -712,10 +775,28 @@
         <v>43644</v>
       </c>
       <c r="G3" s="4">
-        <v>43617</v>
-      </c>
-      <c r="H3" s="9">
-        <v>43618</v>
+        <v>43647</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43648</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43649</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43651</v>
+      </c>
+      <c r="K3" s="4">
+        <v>43652</v>
+      </c>
+      <c r="L3" s="4">
+        <v>43654</v>
+      </c>
+      <c r="M3" s="4">
+        <v>43655</v>
+      </c>
+      <c r="N3" s="4">
+        <v>43656</v>
       </c>
     </row>
     <row r="4" spans="1:104" ht="188.5">
@@ -737,6 +818,18 @@
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:104" ht="113" customHeight="1">
       <c r="A5" t="s">
@@ -760,6 +853,24 @@
       <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:104" ht="159" customHeight="1">
       <c r="A6" t="s">
@@ -786,6 +897,21 @@
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:104" ht="93" customHeight="1">
       <c r="A7" t="s">
@@ -811,6 +937,21 @@
       </c>
       <c r="H7" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
